--- a/data/single_objective.xlsx
+++ b/data/single_objective.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy-framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/lin_3326_buckeyemail_osu_edu/Documents/research/OSU/2021-07 Differential privacy/privacy-framework/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE748-E6DD-4324-ADF0-733D6E78F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -558,16 +558,16 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,27 +629,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -671,18 +671,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -728,7 +728,7 @@
         <v>8.7903062622176398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0.11930169960207899</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.115341731981687</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -793,7 +793,7 @@
         <v>9.89236600009058E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.13333835735587199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0.12984238201981199</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0.15027313912694801</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>0.197141106495476</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0.19691474498276201</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0.17359379391952401</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.217641389006546</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0.20902540576027101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0.19601119409579601</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0.249830909291889</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0.25257015892297402</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0.23328700586173601</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.279596696908194</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1113,16 +1113,16 @@
       <selection activeCell="B1" sqref="A1:H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>4.8722798869068398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>6.09296192307478E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>6.8755482119757794E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>8.87033416632967E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0.120771062116214</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0.118982484543791</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>8.9677937753819201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0.12304319823175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.12183633803133299</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>8.9677937753819201E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0.12304319823175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.12183633803133299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>8.9677937753819201E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0.12304319823175</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0.12183633803133299</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>8.9677937753819201E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.12304319823175</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0.12183633803133299</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>4.7709947808631602E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>6.0236498072807197E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>6.6435269320102797E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8.4263451314380997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0.112700282583317</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0.11549751509412701</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0.102230969617419</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0.13710804202777199</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0.134941098103425</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0.10929261935941401</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0.14074186507056299</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0.14120000669302499</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.114650695279664</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.14346284811894799</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0.141238508973803</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0.11977658136699</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0.148216658261458</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.146575096873442</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>4.7305207005206698E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>5.3870118465909798E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>6.0695834203509803E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>9.3142388693077796E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.10964947969129001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0.114318224174599</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.153291959966601</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0.201500014382934</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.20256815318466601</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0.15361092891860101</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0.20260196708775999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0.20444436489117901</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0.15376024788238099</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0.202805203629467</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0.20691444900389799</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0.15369727002219999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0.20301165046727401</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0.20711372021190699</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>4.5717998124244298E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>5.18744574438295E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>5.5641501019197299E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>9.0736816978401899E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0.10664378437628901</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0.11099051394170199</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0.14058548665552201</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0.177020517996552</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.17904718124274299</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.15322125731142799</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0.193467088405475</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0.193752996753596</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0.16830914038224401</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>0.21649596913649</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0.206691790770022</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>0.17988763497363999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0.22169123307531599</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0.21578596849360801</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>4.5057038340309101E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>4.6189435826774802E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>4.8804772330780503E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>9.0067471862603402E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0.100838089941653</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.107032926731347</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0.19940347283722301</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>0.25502433436730898</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0.257858884953094</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0.19981828360275899</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0.254830640813339</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0.25780005930056799</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0.20009961191391101</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.25567078055173997</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0.25900298426377499</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0.200257281504296</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0.25582916588625998</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.25837992368645901</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4.5405460953150199E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>4.4940992281525198E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>5.12560691708904E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>8.7910327909133501E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>9.4561228726849994E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.100248659666337</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0.15927873322300301</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0.19058095408293901</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0.191994871029874</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0.17209849372731201</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0.20744311873744001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0.20065689534395301</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.18867034765256399</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.22939538735677401</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0.21850828159931801</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.19762671524012301</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0.240583963640781</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3754,12 +3754,12 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:D37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>4.9999999999999899E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>9.9951639149678098E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0.449154201872071</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0.449154201872071</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.449154201872071</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0.449154201872071</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>5.00000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0.499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>1.49999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1.52987363798049</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>9.9999999999999603E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>0.500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1.49999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1.99999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>4.9999999999999899E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>9.9999999999999895E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>1.49999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1.99999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>5.00000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1.49999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>1.99999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>4.9999999999999899E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>0.500000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1.49999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
